--- a/biology/Botanique/Sporochnaceae/Sporochnaceae.xlsx
+++ b/biology/Botanique/Sporochnaceae/Sporochnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sporochnaceae sont une famille d’algues brunes de l’ordre des Sporochnales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Sporochnus, dérivé du grec ancien σπορα / spora, , « graine ; semence », et Χνόος / chnóos, « duvet ; laine de rembourrage », en référence aux « tubercules fructifères terminés par des poils »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Sporochnus, dérivé du grec ancien σπορα / spora, , « graine ; semence », et Χνόος / chnóos, « duvet ; laine de rembourrage », en référence aux « tubercules fructifères terminés par des poils ».
 Il est à noter que, le nom « Sporochnaceae » a la même structure étymologique (mais inversée) que celle de la famille des Chnoosporaceae.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 août 2017) :
 Austronereia Womersley
 Bellotia Harvey
 Carpomitra Kützing
@@ -557,11 +573,11 @@
 Sporochnema Womersley
 Sporochnus C.Agardh
 Tomaculopsis A.B.Cribb
-Selon ITIS      (25 août 2017)[3] :
+Selon ITIS      (25 août 2017) :
 Carpomitra
 Nereia
 Sporochnus
-Selon World Register of Marine Species                               (25 août 2017)[4] :
+Selon World Register of Marine Species                               (25 août 2017) :
 Austronereia Womersley, 1987
 Bellotia Harvey, 1855
 Carpomitra Kützing, 1843
